--- a/banhang24/Template/ExportExcel/BaoCao/Teamplate_NhatKySuDung_TheGiaTri.xlsx
+++ b/banhang24/Template/ExportExcel/BaoCao/Teamplate_NhatKySuDung_TheGiaTri.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\banhang24_20180625\banhang24vn\banhang24\Template\ExportExcel\BaoCao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\KangJinDemo\KangJinDemo\banhang24\Template\ExportExcel\BaoCao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -256,6 +256,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,7 +269,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -553,7 +553,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,15 +570,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -609,7 +609,7 @@
       <c r="A4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="6" spans="1:10" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -631,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>10</v>
@@ -905,13 +905,13 @@
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="11">
         <f>SUM(F$7:F30)</f>
         <v>0</v>
